--- a/biology/Botanique/Chimonanthus/Chimonanthus.xlsx
+++ b/biology/Botanique/Chimonanthus/Chimonanthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Chimonanthus ou chimonanthes (prononcer Kimonante) sont de petits arbres ou arbustes de la famille des Calycanthacées. Le genre doit son nom au grec chimon, hiver et anthos, fleur. Il met en évidence la floraison hivernale de cet arbuste.
 Les Chinois disent que « celui qui respire une fois le parfum du chimonanthe en sera nostalgique à jamais... »
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chimonanthes sont des arbrisseaux de 2 à 10 m de haut, souvent persistants.
 Les feuilles sont opposées, entières, sur un court pétiole.
@@ -553,7 +567,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chimonanthus caespitosus T.B. Chao
 Chimonanthus campanulatus R.H. Chang &amp; C.S. Ding
@@ -573,7 +589,7 @@
 Chimonanthus smilacifolius Steud.
 Chimonanthus verus Hort. ex Bielawski
 Chimonanthus virginicus
-Selon NCBI  (4 Aug 2010)[1] :
+Selon NCBI  (4 Aug 2010) :
 Chimonanthus campanulatus
 Chimonanthus grammatus
 Chimonanthus nitens
@@ -607,7 +623,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit de plantes originaires d'Asie, principalement Chine et Japon. Les espèces cultivées ont été acclimatées un peu partout en zone tempérée.
 Il fut introduit en Angleterre en 1766. Certains spécimens de cet arbuste sont remarquables, comme au Jardin botanique de Lyon.
@@ -639,7 +657,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chimonanthes sont des plantes ornementales largement répandues, en raison de leur floraison hivernale et de leur odeur.
 Leur culture ne soulève pas de difficulté majeure : sol neutre à légèrement acide, mais non hydromorphe, exposition légèrement ombragée.
